--- a/musique.xlsx
+++ b/musique.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72710AD4-71B0-2348-8DB9-1D1D79E45380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD2F6C0-750D-5944-BB3E-8DD45A42B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1126,15 +1126,6 @@
     <t>18/06/2026</t>
   </si>
   <si>
-    <t>Avenir (2014)</t>
-  </si>
-  <si>
-    <t>Louane</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=W6cp9FakTlo</t>
-  </si>
-  <si>
     <t>19/06/2026</t>
   </si>
   <si>
@@ -1790,6 +1781,15 @@
   </si>
   <si>
     <t>The Man Who Sold The World (1993)</t>
+  </si>
+  <si>
+    <t>Au P'Tit Bonheur</t>
+  </si>
+  <si>
+    <t>J'Veux Du Soleil (1991)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3uStC_JW4XU&amp;list=RD3uStC_JW4XU&amp;start_radio=1</t>
   </si>
 </sst>
 </file>
@@ -2183,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="89" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2196,7 +2196,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D2" t="s">
         <v>121</v>
@@ -2242,7 +2242,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2262,16 +2262,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C4" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -2282,16 +2282,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C5" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G5" t="s">
         <v>185</v>
@@ -2302,10 +2302,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2322,10 +2322,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -2334,7 +2334,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2342,7 +2342,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -2362,7 +2362,7 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -2382,13 +2382,13 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D10" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -2402,19 +2402,19 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C11" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D11" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2442,19 +2442,19 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C13" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G13" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2485,7 +2485,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -2502,7 +2502,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
@@ -2522,10 +2522,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C17" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -2542,10 +2542,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C18" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -2582,7 +2582,7 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2591,7 +2591,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
@@ -2602,13 +2602,13 @@
         <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C21" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D21" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F21" t="s">
         <v>60</v>
@@ -2625,7 +2625,7 @@
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -2642,7 +2642,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
@@ -2662,7 +2662,7 @@
         <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -2682,7 +2682,7 @@
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
@@ -2705,7 +2705,7 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -2722,16 +2722,16 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C27" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -2742,13 +2742,13 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C28" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D28" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F28" t="s">
         <v>78</v>
@@ -2762,10 +2762,10 @@
         <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C29" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -2785,7 +2785,7 @@
         <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D30" t="s">
         <v>224</v>
@@ -2802,16 +2802,16 @@
         <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C31" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -2842,10 +2842,10 @@
         <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C33" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -2862,10 +2862,10 @@
         <v>91</v>
       </c>
       <c r="B34" t="s">
+        <v>528</v>
+      </c>
+      <c r="C34" t="s">
         <v>531</v>
-      </c>
-      <c r="C34" t="s">
-        <v>534</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -2882,10 +2882,10 @@
         <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C35" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -2902,10 +2902,10 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C36" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
@@ -2922,10 +2922,10 @@
         <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C37" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -2942,19 +2942,19 @@
         <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C38" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D38" t="s">
         <v>269</v>
       </c>
       <c r="F38" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G38" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2962,16 +2962,16 @@
         <v>100</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C39" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
@@ -2982,10 +2982,10 @@
         <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C40" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D40" t="s">
         <v>313</v>
@@ -3002,10 +3002,10 @@
         <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C41" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -3022,16 +3022,16 @@
         <v>106</v>
       </c>
       <c r="B42" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C42" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D42" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="F42" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
@@ -3042,7 +3042,7 @@
         <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C43" t="s">
         <v>101</v>
@@ -3062,7 +3062,7 @@
         <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C44" t="s">
         <v>110</v>
@@ -3082,10 +3082,10 @@
         <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C45" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -3108,7 +3108,7 @@
         <v>116</v>
       </c>
       <c r="D46" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F46" t="s">
         <v>117</v>
@@ -3122,16 +3122,16 @@
         <v>118</v>
       </c>
       <c r="B47" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C47" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -3142,16 +3142,16 @@
         <v>119</v>
       </c>
       <c r="B48" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C48" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D48" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G48" t="s">
         <v>185</v>
@@ -3162,10 +3162,10 @@
         <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C49" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D49" t="s">
         <v>121</v>
@@ -3222,7 +3222,7 @@
         <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C52" t="s">
         <v>136</v>
@@ -3242,13 +3242,13 @@
         <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C53" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D53" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F53" t="s">
         <v>139</v>
@@ -3262,7 +3262,7 @@
         <v>140</v>
       </c>
       <c r="B54" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C54" t="s">
         <v>141</v>
@@ -3282,16 +3282,16 @@
         <v>144</v>
       </c>
       <c r="B55" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C55" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D55" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F55" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
@@ -3302,7 +3302,7 @@
         <v>145</v>
       </c>
       <c r="B56" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C56" t="s">
         <v>120</v>
@@ -3322,10 +3322,10 @@
         <v>146</v>
       </c>
       <c r="B57" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C57" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
@@ -3345,7 +3345,7 @@
         <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
@@ -3362,16 +3362,16 @@
         <v>152</v>
       </c>
       <c r="B59" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C59" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
@@ -3402,10 +3402,10 @@
         <v>157</v>
       </c>
       <c r="B61" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C61" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D61" t="s">
         <v>83</v>
@@ -3482,10 +3482,10 @@
         <v>172</v>
       </c>
       <c r="B65" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C65" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
@@ -3502,7 +3502,7 @@
         <v>174</v>
       </c>
       <c r="B66" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C66" t="s">
         <v>175</v>
@@ -3562,10 +3562,10 @@
         <v>186</v>
       </c>
       <c r="B69" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C69" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D69" t="s">
         <v>187</v>
@@ -3582,16 +3582,16 @@
         <v>189</v>
       </c>
       <c r="B70" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C70" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D70" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G70" t="s">
         <v>190</v>
@@ -3622,7 +3622,7 @@
         <v>195</v>
       </c>
       <c r="B72" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C72" t="s">
         <v>196</v>
@@ -3642,10 +3642,10 @@
         <v>199</v>
       </c>
       <c r="B73" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C73" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D73" t="s">
         <v>200</v>
@@ -3662,7 +3662,7 @@
         <v>202</v>
       </c>
       <c r="B74" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C74" t="s">
         <v>203</v>
@@ -3702,16 +3702,16 @@
         <v>209</v>
       </c>
       <c r="B76" t="s">
+        <v>492</v>
+      </c>
+      <c r="C76" t="s">
+        <v>493</v>
+      </c>
+      <c r="D76" t="s">
+        <v>494</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="C76" t="s">
-        <v>496</v>
-      </c>
-      <c r="D76" t="s">
-        <v>497</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="G76" t="s">
         <v>185</v>
@@ -3725,7 +3725,7 @@
         <v>211</v>
       </c>
       <c r="C77" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D77" t="s">
         <v>17</v>
@@ -3762,7 +3762,7 @@
         <v>218</v>
       </c>
       <c r="B79" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C79" t="s">
         <v>219</v>
@@ -3782,16 +3782,16 @@
         <v>221</v>
       </c>
       <c r="B80" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C80" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D80" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F80" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G80" t="s">
         <v>185</v>
@@ -3805,7 +3805,7 @@
         <v>223</v>
       </c>
       <c r="C81" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D81" t="s">
         <v>224</v>
@@ -3822,16 +3822,16 @@
         <v>226</v>
       </c>
       <c r="B82" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C82" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D82" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F82" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G82" t="s">
         <v>163</v>
@@ -3842,7 +3842,7 @@
         <v>227</v>
       </c>
       <c r="B83" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C83" t="s">
         <v>228</v>
@@ -3862,7 +3862,7 @@
         <v>230</v>
       </c>
       <c r="B84" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C84" t="s">
         <v>231</v>
@@ -3882,13 +3882,13 @@
         <v>234</v>
       </c>
       <c r="B85" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C85" t="s">
         <v>235</v>
       </c>
       <c r="D85" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F85" t="s">
         <v>236</v>
@@ -3902,7 +3902,7 @@
         <v>237</v>
       </c>
       <c r="B86" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C86" t="s">
         <v>238</v>
@@ -3922,7 +3922,7 @@
         <v>240</v>
       </c>
       <c r="B87" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C87" t="s">
         <v>241</v>
@@ -3962,10 +3962,10 @@
         <v>247</v>
       </c>
       <c r="B89" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C89" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D89" t="s">
         <v>121</v>
@@ -3982,7 +3982,7 @@
         <v>249</v>
       </c>
       <c r="B90" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C90" t="s">
         <v>250</v>
@@ -4002,7 +4002,7 @@
         <v>252</v>
       </c>
       <c r="B91" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C91" t="s">
         <v>193</v>
@@ -4022,7 +4022,7 @@
         <v>254</v>
       </c>
       <c r="B92" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C92" t="s">
         <v>255</v>
@@ -4045,7 +4045,7 @@
         <v>258</v>
       </c>
       <c r="C93" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D93" t="s">
         <v>121</v>
@@ -4062,7 +4062,7 @@
         <v>260</v>
       </c>
       <c r="B94" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C94" t="s">
         <v>261</v>
@@ -4082,10 +4082,10 @@
         <v>264</v>
       </c>
       <c r="B95" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C95" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D95" t="s">
         <v>17</v>
@@ -4102,7 +4102,7 @@
         <v>267</v>
       </c>
       <c r="B96" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C96" t="s">
         <v>268</v>
@@ -4122,10 +4122,10 @@
         <v>271</v>
       </c>
       <c r="B97" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C97" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
@@ -4162,16 +4162,16 @@
         <v>277</v>
       </c>
       <c r="B99" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C99" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G99" t="s">
         <v>19</v>
@@ -4182,7 +4182,7 @@
         <v>278</v>
       </c>
       <c r="B100" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C100" t="s">
         <v>155</v>
@@ -4202,7 +4202,7 @@
         <v>280</v>
       </c>
       <c r="B101" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C101" t="s">
         <v>281</v>
@@ -4262,10 +4262,10 @@
         <v>291</v>
       </c>
       <c r="B104" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C104" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D104" t="s">
         <v>292</v>
@@ -4282,16 +4282,16 @@
         <v>294</v>
       </c>
       <c r="B105" t="s">
+        <v>497</v>
+      </c>
+      <c r="C105" t="s">
+        <v>498</v>
+      </c>
+      <c r="D105" t="s">
+        <v>499</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="C105" t="s">
-        <v>501</v>
-      </c>
-      <c r="D105" t="s">
-        <v>502</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="G105" t="s">
         <v>295</v>
@@ -4302,7 +4302,7 @@
         <v>296</v>
       </c>
       <c r="B106" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C106" t="s">
         <v>297</v>
@@ -4322,7 +4322,7 @@
         <v>299</v>
       </c>
       <c r="B107" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C107" t="s">
         <v>120</v>
@@ -4342,7 +4342,7 @@
         <v>301</v>
       </c>
       <c r="B108" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C108" t="s">
         <v>302</v>
@@ -4365,7 +4365,7 @@
         <v>305</v>
       </c>
       <c r="C109" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D109" t="s">
         <v>17</v>
@@ -4382,10 +4382,10 @@
         <v>307</v>
       </c>
       <c r="B110" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C110" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D110" t="s">
         <v>200</v>
@@ -4405,7 +4405,7 @@
         <v>310</v>
       </c>
       <c r="C111" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D111" t="s">
         <v>21</v>
@@ -4422,10 +4422,10 @@
         <v>312</v>
       </c>
       <c r="B112" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C112" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D112" t="s">
         <v>313</v>
@@ -4442,7 +4442,7 @@
         <v>315</v>
       </c>
       <c r="B113" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C113" t="s">
         <v>245</v>
@@ -4462,7 +4462,7 @@
         <v>317</v>
       </c>
       <c r="B114" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C114" t="s">
         <v>318</v>
@@ -4502,16 +4502,16 @@
         <v>324</v>
       </c>
       <c r="B116" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C116" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D116" t="s">
         <v>21</v>
       </c>
       <c r="F116" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G116" t="s">
         <v>185</v>
@@ -4522,16 +4522,16 @@
         <v>325</v>
       </c>
       <c r="B117" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C117" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D117" t="s">
         <v>121</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="G117" t="s">
         <v>19</v>
@@ -4545,7 +4545,7 @@
         <v>327</v>
       </c>
       <c r="C118" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D118" t="s">
         <v>17</v>
@@ -4565,7 +4565,7 @@
         <v>330</v>
       </c>
       <c r="C119" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D119" t="s">
         <v>17</v>
@@ -4582,16 +4582,16 @@
         <v>332</v>
       </c>
       <c r="B120" t="s">
+        <v>478</v>
+      </c>
+      <c r="C120" t="s">
+        <v>479</v>
+      </c>
+      <c r="D120" t="s">
+        <v>480</v>
+      </c>
+      <c r="F120" t="s">
         <v>481</v>
-      </c>
-      <c r="C120" t="s">
-        <v>482</v>
-      </c>
-      <c r="D120" t="s">
-        <v>483</v>
-      </c>
-      <c r="F120" t="s">
-        <v>484</v>
       </c>
       <c r="G120" t="s">
         <v>185</v>
@@ -4622,7 +4622,7 @@
         <v>337</v>
       </c>
       <c r="B122" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C122" t="s">
         <v>338</v>
@@ -4645,7 +4645,7 @@
         <v>343</v>
       </c>
       <c r="C123" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D123" t="s">
         <v>121</v>
@@ -4722,10 +4722,10 @@
         <v>356</v>
       </c>
       <c r="B127" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C127" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
@@ -4762,16 +4762,16 @@
         <v>362</v>
       </c>
       <c r="B129" t="s">
-        <v>363</v>
+        <v>583</v>
       </c>
       <c r="C129" t="s">
-        <v>364</v>
+        <v>582</v>
       </c>
       <c r="D129" t="s">
         <v>17</v>
       </c>
       <c r="F129" t="s">
-        <v>365</v>
+        <v>584</v>
       </c>
       <c r="G129" t="s">
         <v>19</v>
@@ -4779,10 +4779,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B130" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C130" t="s">
         <v>161</v>
@@ -4791,7 +4791,7 @@
         <v>21</v>
       </c>
       <c r="F130" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G130" t="s">
         <v>163</v>
@@ -4799,19 +4799,19 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B131" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C131" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D131" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F131" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G131" t="s">
         <v>8</v>
@@ -4819,19 +4819,19 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B132" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C132" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D132" t="s">
         <v>21</v>
       </c>
       <c r="F132" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G132" t="s">
         <v>130</v>
@@ -4839,19 +4839,19 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B133" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C133" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G133" t="s">
         <v>19</v>
@@ -4859,39 +4859,39 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B134" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C134" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D134" t="s">
         <v>21</v>
       </c>
       <c r="F134" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G134" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B135" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C135" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D135" t="s">
         <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G135" t="s">
         <v>8</v>
@@ -4899,19 +4899,19 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B136" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C136" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D136" t="s">
         <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G136" t="s">
         <v>341</v>
@@ -4919,10 +4919,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B137" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C137" t="s">
         <v>179</v>
@@ -4931,7 +4931,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G137" t="s">
         <v>19</v>
@@ -4939,19 +4939,19 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B138" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C138" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D138" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F138" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G138" t="s">
         <v>185</v>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6481F0-6CD6-C142-B404-8F238C229FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905011C4-4F80-A84A-98B6-698281C81A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -385,24 +385,9 @@
     <t>11/12/2025</t>
   </si>
   <si>
-    <t>Jolie Môme (1960)</t>
-  </si>
-  <si>
-    <t>Léo Ferré</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tqnaPPOWWT4</t>
-  </si>
-  <si>
     <t>12/12/2025</t>
   </si>
   <si>
-    <t>Aerosmith</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=89dGC8de0CA</t>
-  </si>
-  <si>
     <t>15/12/2025</t>
   </si>
   <si>
@@ -1165,9 +1150,6 @@
     <t>Beau-papa (2020)</t>
   </si>
   <si>
-    <t>Dream On (1973)</t>
-  </si>
-  <si>
     <t>Billie Jean (1982)</t>
   </si>
   <si>
@@ -1420,9 +1402,6 @@
     <t>Danses polovtsiennes (1890)</t>
   </si>
   <si>
-    <t>Bamboléo (1978)+B60</t>
-  </si>
-  <si>
     <t>Dans l'antre du roi de la montagne (1875)</t>
   </si>
   <si>
@@ -1757,6 +1736,27 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=GG2jench7Kg&amp;list=RDGG2jench7Kg&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>Mistral gagnant (1986)</t>
+  </si>
+  <si>
+    <t>Renaud</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_YqzuE-5RE8&amp;list=RD_YqzuE-5RE8&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>ZZ top</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Gg9cNGHl-bg&amp;list=RDGg9cNGHl-bg&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>La grange (1982)</t>
+  </si>
+  <si>
+    <t>Bamboléo (1978)</t>
   </si>
 </sst>
 </file>
@@ -2150,8 +2150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" zoomScale="89" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="89" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2163,7 +2163,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2189,10 +2189,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C2" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D2" t="s">
         <v>108</v>
@@ -2206,7 +2206,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -2223,16 +2223,16 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C4" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2240,16 +2240,16 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C5" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2257,10 +2257,10 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="C6" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -2274,10 +2274,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -2291,7 +2291,7 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -2308,7 +2308,7 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -2325,13 +2325,13 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="C10" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D10" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F10" t="s">
         <v>31</v>
@@ -2342,13 +2342,13 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C11" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D11" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F11" t="s">
         <v>33</v>
@@ -2376,16 +2376,16 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C13" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2413,7 +2413,7 @@
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -2427,7 +2427,7 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C16" t="s">
         <v>44</v>
@@ -2444,10 +2444,10 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C17" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
@@ -2461,10 +2461,10 @@
         <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="C18" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -2495,7 +2495,7 @@
         <v>54</v>
       </c>
       <c r="B20" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C20" t="s">
         <v>55</v>
@@ -2504,7 +2504,7 @@
         <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -2512,13 +2512,13 @@
         <v>56</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="C21" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D21" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F21" t="s">
         <v>57</v>
@@ -2532,7 +2532,7 @@
         <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="D22" t="s">
         <v>15</v>
@@ -2546,7 +2546,7 @@
         <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C23" t="s">
         <v>62</v>
@@ -2563,7 +2563,7 @@
         <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C24" t="s">
         <v>65</v>
@@ -2580,7 +2580,7 @@
         <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -2600,7 +2600,7 @@
         <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D26" t="s">
         <v>30</v>
@@ -2614,16 +2614,16 @@
         <v>73</v>
       </c>
       <c r="B27" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C27" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -2631,16 +2631,16 @@
         <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="C28" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="D28" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -2648,16 +2648,16 @@
         <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C29" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="D29" t="s">
         <v>108</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -2665,16 +2665,16 @@
         <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C30" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D30" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F30" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -2682,16 +2682,16 @@
         <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="C31" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="D31" t="s">
         <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -2699,10 +2699,10 @@
         <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C32" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
@@ -2716,16 +2716,16 @@
         <v>80</v>
       </c>
       <c r="B33" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="C33" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -2733,16 +2733,16 @@
         <v>82</v>
       </c>
       <c r="B34" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="C34" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2750,10 +2750,10 @@
         <v>83</v>
       </c>
       <c r="B35" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C35" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
@@ -2767,10 +2767,10 @@
         <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C36" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="D36" t="s">
         <v>30</v>
@@ -2784,16 +2784,16 @@
         <v>87</v>
       </c>
       <c r="B37" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C37" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="D37" t="s">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -2801,16 +2801,16 @@
         <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C38" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="D38" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F38" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -2818,16 +2818,16 @@
         <v>89</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C39" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
       </c>
       <c r="F39" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -2835,13 +2835,13 @@
         <v>91</v>
       </c>
       <c r="B40" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="C40" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="D40" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F40" t="s">
         <v>92</v>
@@ -2852,16 +2852,16 @@
         <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C41" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="D41" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -2869,16 +2869,16 @@
         <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="C42" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D42" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="F42" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -2886,7 +2886,7 @@
         <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C43" t="s">
         <v>90</v>
@@ -2903,7 +2903,7 @@
         <v>97</v>
       </c>
       <c r="B44" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="C44" t="s">
         <v>98</v>
@@ -2920,16 +2920,16 @@
         <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C45" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D45" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -2943,7 +2943,7 @@
         <v>103</v>
       </c>
       <c r="D46" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F46" t="s">
         <v>104</v>
@@ -2954,16 +2954,16 @@
         <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="C47" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -2971,16 +2971,16 @@
         <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C48" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D48" t="s">
         <v>18</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -2988,16 +2988,16 @@
         <v>110</v>
       </c>
       <c r="B49" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C49" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D49" t="s">
         <v>108</v>
       </c>
       <c r="F49" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -3022,92 +3022,92 @@
         <v>115</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>567</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>568</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
       </c>
-      <c r="F51" t="s">
-        <v>118</v>
+      <c r="F51" s="1" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B52" t="s">
-        <v>376</v>
+        <v>572</v>
       </c>
       <c r="C52" t="s">
-        <v>120</v>
+        <v>570</v>
       </c>
       <c r="D52" t="s">
         <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>121</v>
+        <v>571</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B53" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C53" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="D53" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F53" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B54" t="s">
-        <v>461</v>
+        <v>573</v>
       </c>
       <c r="C54" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
       </c>
       <c r="F54" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B55" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="C55" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D55" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="F55" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B56" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C56" t="s">
         <v>107</v>
@@ -3121,860 +3121,860 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B57" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="C57" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B58" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C58" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B59" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="C59" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
       </c>
       <c r="F59" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D60" t="s">
         <v>30</v>
       </c>
       <c r="F60" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B61" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C61" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="D61" t="s">
         <v>77</v>
       </c>
       <c r="F61" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B62" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C62" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D62" t="s">
         <v>18</v>
       </c>
       <c r="F62" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B63" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C63" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
         <v>15</v>
       </c>
       <c r="F63" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B64" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="C64" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="D64" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F64" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B65" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="C65" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D65" t="s">
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B66" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C66" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D66" t="s">
         <v>18</v>
       </c>
       <c r="F66" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B67" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C67" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
       </c>
       <c r="F67" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C68" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D68" t="s">
         <v>30</v>
       </c>
       <c r="F68" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B69" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="C69" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="D69" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F69" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B70" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C70" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="D70" t="s">
         <v>18</v>
       </c>
       <c r="F70" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B71" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C71" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D71" t="s">
         <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B72" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C72" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D72" t="s">
         <v>18</v>
       </c>
       <c r="F72" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B73" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C73" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D73" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F73" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B74" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C74" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D74" t="s">
         <v>18</v>
       </c>
       <c r="F74" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B75" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="C75" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="D75" t="s">
         <v>18</v>
       </c>
       <c r="F75" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B76" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C76" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="D76" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B77" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C77" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="D77" t="s">
         <v>15</v>
       </c>
       <c r="F77" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B78" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C78" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D78" t="s">
         <v>18</v>
       </c>
       <c r="F78" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B79" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C79" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
       </c>
       <c r="F79" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B80" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C80" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D80" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="F80" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B81" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C81" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D81" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F81" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B82" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="C82" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="D82" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F82" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B83" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C83" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
       </c>
       <c r="F83" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B84" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="C84" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D84" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F84" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B85" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C85" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D85" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F85" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B86" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C86" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D86" t="s">
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B87" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C87" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D87" t="s">
         <v>15</v>
       </c>
       <c r="F87" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B88" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C88" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D88" t="s">
         <v>15</v>
       </c>
       <c r="F88" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B89" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C89" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D89" t="s">
         <v>108</v>
       </c>
       <c r="F89" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B90" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C90" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D90" t="s">
         <v>18</v>
       </c>
       <c r="F90" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B91" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C91" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D91" t="s">
         <v>15</v>
       </c>
       <c r="F91" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B92" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C92" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D92" t="s">
         <v>15</v>
       </c>
       <c r="F92" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B93" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C93" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D93" t="s">
         <v>108</v>
       </c>
       <c r="F93" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B94" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C94" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
       </c>
       <c r="F94" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B95" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C95" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D95" t="s">
         <v>15</v>
       </c>
       <c r="F95" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B96" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C96" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D96" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F96" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B97" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C97" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="D97" t="s">
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B98" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C98" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D98" t="s">
         <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B99" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C99" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D99" t="s">
         <v>15</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B100" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="C100" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D100" t="s">
         <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B101" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C101" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D101" t="s">
         <v>15</v>
       </c>
       <c r="F101" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B102" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C102" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D102" t="s">
         <v>15</v>
       </c>
       <c r="F102" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B103" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C103" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D103" t="s">
         <v>15</v>
       </c>
       <c r="F103" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B104" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="C104" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D104" t="s">
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B105" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="C105" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="D105" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B106" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="C106" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
       </c>
       <c r="F106" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B107" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="C107" t="s">
         <v>107</v>
@@ -3983,304 +3983,304 @@
         <v>108</v>
       </c>
       <c r="F107" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B108" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C108" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D108" t="s">
         <v>15</v>
       </c>
       <c r="F108" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B109" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C109" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
       </c>
       <c r="F109" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B110" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="C110" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="D110" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="F110" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B111" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C111" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="D111" t="s">
         <v>18</v>
       </c>
       <c r="F111" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B112" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C112" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D112" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="F112" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B113" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C113" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D113" t="s">
         <v>15</v>
       </c>
       <c r="F113" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B114" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C114" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="D114" t="s">
         <v>15</v>
       </c>
       <c r="F114" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B115" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C115" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="D115" t="s">
         <v>15</v>
       </c>
       <c r="F115" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B116" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="C116" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="D116" t="s">
         <v>18</v>
       </c>
       <c r="F116" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B117" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C117" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="D117" t="s">
         <v>108</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B118" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C118" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="D118" t="s">
         <v>15</v>
       </c>
       <c r="F118" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B119" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C119" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D119" t="s">
         <v>15</v>
       </c>
       <c r="F119" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B120" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C120" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D120" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F120" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B121" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C121" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D121" t="s">
         <v>15</v>
       </c>
       <c r="F121" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B122" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C122" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D122" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F122" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B123" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C123" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D123" t="s">
         <v>108</v>
       </c>
       <c r="F123" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B124" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C124" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D124" t="s">
         <v>18</v>
       </c>
       <c r="F124" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B125" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C125" t="s">
         <v>14</v>
@@ -4289,267 +4289,267 @@
         <v>15</v>
       </c>
       <c r="F125" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B126" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C126" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D126" t="s">
         <v>30</v>
       </c>
       <c r="F126" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B127" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C127" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="D127" t="s">
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B128" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C128" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D128" t="s">
         <v>15</v>
       </c>
       <c r="F128" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B129" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C129" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="D129" t="s">
         <v>15</v>
       </c>
       <c r="F129" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B130" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C130" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D130" t="s">
         <v>18</v>
       </c>
       <c r="F130" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B131" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C131" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="D131" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F131" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B132" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C132" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="D132" t="s">
         <v>18</v>
       </c>
       <c r="F132" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B133" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C133" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="D133" t="s">
         <v>15</v>
       </c>
       <c r="F133" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B134" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C134" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="D134" t="s">
         <v>18</v>
       </c>
       <c r="F134" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B135" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C135" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="D135" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="F135" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B136" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C136" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D136" t="s">
         <v>30</v>
       </c>
       <c r="F136" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B137" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C137" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D137" t="s">
         <v>15</v>
       </c>
       <c r="F137" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B138" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C138" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="D138" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F138" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="C140" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="D140" t="s">
         <v>15</v>
       </c>
       <c r="F140" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="C141" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="D141" t="s">
         <v>15</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="C142" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -4568,6 +4568,7 @@
     <hyperlink ref="F105" r:id="rId7" xr:uid="{978C369A-8FBC-F840-B5F4-DF7495B41247}"/>
     <hyperlink ref="F117" r:id="rId8" xr:uid="{15AAE0D8-D438-0445-BD6E-A0C919093326}"/>
     <hyperlink ref="F141" r:id="rId9" xr:uid="{C764D21E-FDB9-1C48-8020-8398498CD7FB}"/>
+    <hyperlink ref="F51" r:id="rId10" xr:uid="{8632FAAB-9942-C948-93C9-135910C1F7F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905011C4-4F80-A84A-98B6-698281C81A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80D89CD-E65C-FB40-9B6B-DD54509B08A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="578">
   <si>
     <t>titre</t>
   </si>
@@ -1757,6 +1757,18 @@
   </si>
   <si>
     <t>Bamboléo (1978)</t>
+  </si>
+  <si>
+    <t>Amadou &amp; Mariam</t>
+  </si>
+  <si>
+    <t>Sabali (2010)</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NRtQmqqfdoc&amp;list=RDNRtQmqqfdoc&amp;start_radio=1</t>
   </si>
 </sst>
 </file>
@@ -2148,10 +2160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="89" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4550,6 +4562,20 @@
       </c>
       <c r="F142" s="1" t="s">
         <v>529</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>575</v>
+      </c>
+      <c r="C143" t="s">
+        <v>574</v>
+      </c>
+      <c r="D143" t="s">
+        <v>576</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -4569,6 +4595,7 @@
     <hyperlink ref="F117" r:id="rId8" xr:uid="{15AAE0D8-D438-0445-BD6E-A0C919093326}"/>
     <hyperlink ref="F141" r:id="rId9" xr:uid="{C764D21E-FDB9-1C48-8020-8398498CD7FB}"/>
     <hyperlink ref="F51" r:id="rId10" xr:uid="{8632FAAB-9942-C948-93C9-135910C1F7F4}"/>
+    <hyperlink ref="F143" r:id="rId11" xr:uid="{77BCC504-3965-CC42-AD15-C87D59326DF4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
